--- a/biology/Zoologie/Benji_(film,_2018)/Benji_(film,_2018).xlsx
+++ b/biology/Zoologie/Benji_(film,_2018)/Benji_(film,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benji est un film américain de 2018, écrit et réalisé par Brandon Camp et produit par Blumhouse Productions. Le film est un reboot du Benji de 1974, réalisé par le père de Brandon Camp, Joe. Il met en vedette Gabriel Bateman et Darby Camp [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benji est un film américain de 2018, écrit et réalisé par Brandon Camp et produit par Blumhouse Productions. Le film est un reboot du Benji de 1974, réalisé par le père de Brandon Camp, Joe. Il met en vedette Gabriel Bateman et Darby Camp .
 Le film est sorti le 16 mars 2018 sur Netflix.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gabriel Bateman : Carter Hughes
 Darby Camp : Frankie Hughes
@@ -582,11 +598,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 21 mai 2016, Blumhouse Productions a annoncé le reboot du film Benji de 1974, qui serait réalisé par Brandon Camp avec Gabriel Bateman dans le film[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 mai 2016, Blumhouse Productions a annoncé le reboot du film Benji de 1974, qui serait réalisé par Brandon Camp avec Gabriel Bateman dans le film.
 Tournage
-Le tournage du film a commencé en octobre 2016[3],[4].
+Le tournage du film a commencé en octobre 2016,.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur le site Rotten Tomatoes, le film bénéficie d'un taux d'approbation de 60% basé sur 10 commentaires et d'une note moyenne de 5.47 / 10[5]. Sur Metacritic, le film a une note moyenne pondérée de 53 sur 100, basé sur 7 critiques, ce qui indique des « critiques mitigées ou moyennes[6] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site Rotten Tomatoes, le film bénéficie d'un taux d'approbation de 60% basé sur 10 commentaires et d'une note moyenne de 5.47 / 10. Sur Metacritic, le film a une note moyenne pondérée de 53 sur 100, basé sur 7 critiques, ce qui indique des « critiques mitigées ou moyennes ».
 </t>
         </is>
       </c>
